--- a/biology/Zoologie/Aigle_d'Isidore/Aigle_d'Isidore.xlsx
+++ b/biology/Zoologie/Aigle_d'Isidore/Aigle_d'Isidore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aigle_d%27Isidore</t>
+          <t>Aigle_d'Isidore</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spizaetus isidori
 L'Aigle d'Isidore (Spizaetus isidori) est une espèce d'oiseaux appartenant à la famille des Accipitridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aigle_d%27Isidore</t>
+          <t>Aigle_d'Isidore</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans les forêts de montagne humides des Andes du nord-ouest de l'Argentine au Venezuela, avec des populations isolées dans la cordillère de la Costa, la Serranía del Perijá et la Sierra Nevada de Santa Marta. Il est généralement local et rare.
 </t>
